--- a/examples/paris_branch_office.xlsx
+++ b/examples/paris_branch_office.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="6620" yWindow="4320" windowWidth="11900" windowHeight="5360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,25 +19,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>192.168.1.0/24</t>
-  </si>
-  <si>
-    <t>core</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>ipam</t>
+  </si>
+  <si>
+    <t># subnet</t>
+  </si>
+  <si>
+    <t>192.168.1.0/26</t>
+  </si>
+  <si>
+    <t>192.168.1.64/26</t>
+  </si>
+  <si>
+    <t>192.168.1.128/26</t>
+  </si>
+  <si>
+    <t>192.168.1.192/26</t>
+  </si>
+  <si>
+    <t>Paris branch - core net</t>
+  </si>
+  <si>
+    <t>Paris branch - 1st floor</t>
+  </si>
+  <si>
+    <t>Paris branch - 2nd floor</t>
+  </si>
+  <si>
+    <t>Paris branch - 3rd floor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -58,13 +115,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,27 +464,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
